--- a/trend_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
+++ b/trend_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.636584252511737</v>
+        <v>0.363415747488263</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0651765924484697</v>
+        <v>0.93482340755153</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.241371188291271</v>
+        <v>0.758628811708729</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
+++ b/trend_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.220761976925377</v>
+        <v>0.096859914106757</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0689655172413793</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0942483786993058</v>
+        <v>-0.183904993815708</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.341234124200313</v>
+        <v>-0.414705783389464</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0677854730894908</v>
+        <v>0.0335781061833756</v>
       </c>
       <c r="N2" t="n">
-        <v>-12.5664504932408</v>
+        <v>-39.9793464816757</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.363415747488263</v>
+        <v>0.017182123185329</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.882352941176471</v>
+        <v>0.895833333333333</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.88</v>
+        <v>10.815</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0306932773109237</v>
+        <v>-0.193953242481207</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.18314037487705</v>
+        <v>-0.370544215825512</v>
       </c>
       <c r="M3" t="n">
-        <v>0.161561061713952</v>
+        <v>-0.046994455956346</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.282107328225402</v>
+        <v>-1.79337256108374</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,28 +755,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.774583104699524</v>
+        <v>0.344770659432582</v>
       </c>
       <c r="G4" t="n">
-        <v>0.294117647058824</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0.254901960784314</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007</v>
+        <v>0.0065</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0011195596620553</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.0007164493322046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.935673897631956</v>
+        <v>0.895014086955298</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.784313725490196</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="K5" t="n">
-        <v>-21.9699248120301</v>
+        <v>-13.4071827862405</v>
       </c>
       <c r="L5" t="n">
-        <v>-79.6488842921062</v>
+        <v>-41.2445147976945</v>
       </c>
       <c r="M5" t="n">
-        <v>0.996711093552856</v>
+        <v>3.96347015156552</v>
       </c>
       <c r="N5" t="n">
-        <v>-12.9234851835471</v>
+        <v>-9.93124650832628</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,20 +933,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.263598167290022</v>
+        <v>0.273006084795537</v>
       </c>
       <c r="G6" t="n">
-        <v>0.695652173913043</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H6" t="n">
-        <v>0.456521739130435</v>
+        <v>0.488888888888889</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>0.005</v>
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.88884725489829</v>
+        <v>0.999996792093399</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.176470588235294</v>
+        <v>0.1875</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005</v>
+        <v>0.0045</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0009221564289432</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0006098862079506</v>
+        <v>-0.0012252342713039</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.0006363240418118</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-20.492365087628</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0389858492475125</v>
+        <v>0.143074675100918</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9803921568627449</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.593</v>
+        <v>0.631</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0391339285714286</v>
+        <v>0.02435</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0023673216984067</v>
+        <v>-0.0191760819886591</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0719397404637966</v>
+        <v>0.0561892874243412</v>
       </c>
       <c r="N8" t="n">
-        <v>6.59931341845339</v>
+        <v>3.85895404120444</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,35 +1206,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.049345077881456</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.8297872340425529</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.065</v>
+        <v>8.07</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.0565791738382099</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0720855765208929</v>
+        <v>-0.11400531801377</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08671944232149439</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-0.701105004190953</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0487556551332139</v>
+        <v>0.164105656945935</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.96078431372549</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.613</v>
+        <v>0.647</v>
       </c>
       <c r="K10" t="n">
-        <v>0.036525</v>
+        <v>0.0243651789723073</v>
       </c>
       <c r="L10" t="n">
-        <v>8.3140877820322e-05</v>
+        <v>-0.0201370695082495</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0705862477970047</v>
+        <v>0.05705309955189</v>
       </c>
       <c r="N10" t="n">
-        <v>5.9584013050571</v>
+        <v>3.76587001117578</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.967390591573136</v>
+        <v>0.367705366050189</v>
       </c>
       <c r="G11" t="n">
-        <v>0.254901960784314</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.431372549019608</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.993877551020408</v>
+        <v>0.009080713853337899</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.20364884818825</v>
+        <v>-0.0321903461122343</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0487973844492751</v>
       </c>
       <c r="N11" t="n">
-        <v>-24.8469387755102</v>
+        <v>1.13508923166724</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.430111547305715</v>
+        <v>0.72471266978495</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.745098039215686</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.82</v>
+        <v>0.021</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0049225067385444</v>
+        <v>-0.0005006549536519</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.034322326710072</v>
+        <v>-0.0025912275998017</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0569357249463481</v>
+        <v>0.0009761207165859</v>
       </c>
       <c r="N12" t="n">
-        <v>0.600305699822497</v>
+        <v>-2.38407120786649</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.973093459128955</v>
+        <v>0.941133111119049</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.627450980392157</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.023</v>
+        <v>2.245</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0025146299483648</v>
+        <v>-0.309285322720736</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0052968771668626</v>
+        <v>-0.909171063966783</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0002915194454752</v>
+        <v>0.0237769653030699</v>
       </c>
       <c r="N13" t="n">
-        <v>-10.933173688543</v>
+        <v>-13.7766290744203</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.981998331328528</v>
+        <v>0.010618377183117</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.028169014084507</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9803921568627449</v>
+        <v>0.816901408450704</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>0.9</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.571957417582417</v>
+        <v>-0.100371279761905</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.65169374583584</v>
+        <v>-0.178694570320577</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.201803551001223</v>
+        <v>-0.0268298765481437</v>
       </c>
       <c r="N14" t="n">
-        <v>-18.1573783359498</v>
+        <v>-11.1523644179894</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.015727775155257</v>
+        <v>0.776519453733732</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0253164556962025</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.746835443037975</v>
+        <v>0.8301886792452829</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>10.72</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0871748529920443</v>
+        <v>0.0198775510204086</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.153105922658648</v>
+        <v>-0.0375994753898634</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0160529301440345</v>
+        <v>0.07190731091034309</v>
       </c>
       <c r="N15" t="n">
-        <v>-8.71748529920443</v>
+        <v>0.185424916235155</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.878094644072962</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.242990654205607</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.149532710280374</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.93482340755153</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.818181818181818</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.755</v>
+        <v>0.008</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0432511494976092</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0027266418146183</v>
+        <v>-0.0003783827779132</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0978142994332418</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.402149228243693</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.767093845345422</v>
+        <v>0.923972740061657</v>
       </c>
       <c r="G17" t="n">
-        <v>0.243243243243243</v>
+        <v>0.0093457943925233</v>
       </c>
       <c r="H17" t="n">
-        <v>0.144144144144144</v>
+        <v>0.747663551401869</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-6.90598739495798</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0002731862378459</v>
+        <v>-14.7962802636473</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.00332593730069</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-4.31624212184874</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.795536929036151</v>
+        <v>0.0669648863040605</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009009009009009</v>
+        <v>0.7623762376237621</v>
       </c>
       <c r="H18" t="n">
-        <v>0.756756756756757</v>
+        <v>0.376237623762376</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>170</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-4.80592105263158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-13.2479882889633</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>5.06815683397853</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-2.82701238390093</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.409988172107293</v>
+        <v>0.999723028200602</v>
       </c>
       <c r="G19" t="n">
-        <v>0.771428571428571</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="H19" t="n">
-        <v>0.371428571428571</v>
+        <v>0.149532710280374</v>
       </c>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0.005</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0002595948827292</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0004141156462585</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.0001119792742978</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-5.19189765458422</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9975784019821921</v>
+        <v>0.5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009009009009009</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.144144144144144</v>
+        <v>0.97196261682243</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.66</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0002268633540372</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0003753854059609</v>
+        <v>-0.0157264999912368</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0073672729693228</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.53726708074534</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.12466386926372</v>
+        <v>0.907673882045815</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.963963963963964</v>
+        <v>0.6857142857142861</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6447000000000001</v>
+        <v>7.92</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0055362247989423</v>
+        <v>0.0191355681280149</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0063897287520947</v>
+        <v>-0.0036235119047618</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0157810159571278</v>
+        <v>0.0391566852992791</v>
       </c>
       <c r="N21" t="n">
-        <v>0.85872883495306</v>
+        <v>0.241610708687057</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.758628811708729</v>
+        <v>0.440281460095996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.715596330275229</v>
+        <v>0.878504672897196</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.94</v>
+        <v>0.676</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0091679424806358</v>
+        <v>0.0005702576112412</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.014188397531668</v>
+        <v>-0.0151839697940833</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0308342982412975</v>
+        <v>0.007995234857124099</v>
       </c>
       <c r="N22" t="n">
-        <v>0.115465270536976</v>
+        <v>0.08435763479899561</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.113476034146165</v>
+        <v>0.873798018537367</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.882882882882883</v>
+        <v>0.663551401869159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.676</v>
+        <v>0.86</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0057761481516316</v>
+        <v>-0.0061680739388407</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0050092591930853</v>
+        <v>-0.0165097687234024</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0160319857062068</v>
+        <v>0.0018885149786085</v>
       </c>
       <c r="N23" t="n">
-        <v>0.854459785744328</v>
+        <v>-0.7172178998652</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.988898453683721</v>
+        <v>0.926979124249585</v>
       </c>
       <c r="G24" t="n">
-        <v>0.153153153153153</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.306306306306306</v>
+        <v>0.429906542056075</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.024</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.250961036407438</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.5003310312896559</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-5.01922072814876</v>
+        <v>-2.09048763736263</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2654,35 +2654,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5</v>
+        <v>0.808254698496209</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.693693693693694</v>
+        <v>0.934579439252336</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.86</v>
+        <v>3.97</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.0643297455968689</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0100042531117896</v>
+        <v>-0.222772362141085</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0072206411339047</v>
+        <v>0.0542680267301122</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.6203966145307</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.918458201591081</v>
+        <v>0.151761419627249</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0192307692307692</v>
       </c>
       <c r="H26" t="n">
-        <v>0.441441441441441</v>
+        <v>0.663461538461538</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.024</v>
+        <v>0.91</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0004922506738544</v>
+        <v>-0.0260892857142857</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.001003434065934</v>
+        <v>-0.07332893826246881</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0099760819089</v>
       </c>
       <c r="N26" t="n">
-        <v>-2.05104447439353</v>
+        <v>-2.86695447409733</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9627559402533949</v>
+        <v>0.715590382395065</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9459459459459461</v>
+        <v>0.806666666666667</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.09</v>
+        <v>10.72</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.151786126373627</v>
+        <v>0.0099795081967213</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.292472060961373</v>
+        <v>-0.0284748302125065</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0154081212308571</v>
+        <v>0.0401373626373625</v>
       </c>
       <c r="N27" t="n">
-        <v>-3.711152234074</v>
+        <v>0.09309242720822131</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2903,6 +2903,912 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.944754591566321</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.225165562913907</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.132450331125828</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0002933266044311</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.969681970328645</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0066225165562913</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.748344370860927</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>170</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-6.07027934936351</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-11.4100224586356</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.706917139684145</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-3.57075255844912</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.863711141749014</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.703448275862069</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>18</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.377289937424923</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.152317880794702</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.105960264900662</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.21561175295943e-05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5290299693302291</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.927152317880795</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6524</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.0002496582365003</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.0079510341495895</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0052451162226004</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.0382676634733817</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.98317054260063</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.651006711409396</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0196900269541779</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0045754648011602</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0353192169859886</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.249556742131532</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.648819059783577</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.867549668874172</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0015051510989011</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0095371119579189</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0043978321327234</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.22265548800313</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9978990998113419</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.622516556291391</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0100343406593407</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0166173794358508</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.0049818924068727</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.16678379759775</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.989436092323271</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.384105960264901</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0005001141031492</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.001003434065934</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0001427817844367</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-2.08380876312186</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9988843369177129</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.940397350993378</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.169357178279197</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.288566836742088</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.07143972813707949</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-3.87545030387178</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
+++ b/trend_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="63">
   <si>
     <t>site name</t>
   </si>
@@ -88,90 +88,93 @@
     <t>Tiraumea u/s Manawatu Confluence</t>
   </si>
   <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
     <t>Extremely likely increasing</t>
   </si>
   <si>
@@ -187,19 +190,19 @@
     <t>Mana_7b</t>
   </si>
   <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,31 +654,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.096859914106757</v>
+        <v>0.008399634701993</v>
       </c>
       <c r="G2">
-        <v>0.09523809523809521</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.952380952380952</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.46</v>
+        <v>10.755</v>
       </c>
       <c r="K2">
-        <v>-0.183904993815708</v>
+        <v>-0.271025573691016</v>
       </c>
       <c r="L2">
-        <v>-0.414705783389464</v>
+        <v>-0.46878999124759</v>
       </c>
       <c r="M2">
-        <v>0.0335781061833756</v>
+        <v>-0.0918451047873667</v>
       </c>
       <c r="N2">
-        <v>-39.9793464816757</v>
+        <v>-2.51999603617867</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -690,19 +693,19 @@
         <v>5525095</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -722,31 +725,31 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.017182123185329</v>
+        <v>0.17803981793145</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.895833333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.815</v>
+        <v>0.006</v>
       </c>
       <c r="K3">
-        <v>-0.193953242481207</v>
+        <v>0.0002278583687479</v>
       </c>
       <c r="L3">
-        <v>-0.370544215825512</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.046994455956346</v>
+        <v>0.0007031470950761</v>
       </c>
       <c r="N3">
-        <v>-1.79337256108374</v>
+        <v>3.79763947913261</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -761,19 +764,19 @@
         <v>5525095</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,34 +793,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0.344770659432582</v>
+        <v>0.955141335208911</v>
       </c>
       <c r="G4">
-        <v>0.291666666666667</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H4">
-        <v>0.229166666666667</v>
+        <v>0.872340425531915</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.0065</v>
+        <v>130</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-24.4523109243697</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-66.89492898699569</v>
       </c>
       <c r="M4">
-        <v>0.0007164493322046</v>
+        <v>-0.154782838111045</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-18.8094699418229</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -832,19 +835,19 @@
         <v>5525095</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,40 +864,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>0.895014086955298</v>
+        <v>0.95390006262871</v>
       </c>
       <c r="G5">
-        <v>0.0208333333333333</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="H5">
-        <v>0.833333333333333</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>135</v>
+        <v>0.005</v>
       </c>
       <c r="K5">
-        <v>-13.4071827862405</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-41.2445147976945</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.96347015156552</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-9.93124650832628</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1845196</v>
@@ -903,19 +906,19 @@
         <v>5525095</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -935,37 +938,37 @@
         <v>38</v>
       </c>
       <c r="F6">
-        <v>0.273006084795537</v>
+        <v>0.999999982431141</v>
       </c>
       <c r="G6">
-        <v>0.644444444444444</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="H6">
-        <v>0.488888888888889</v>
+        <v>0.1875</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.0009290035170873</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0.0012242981024573</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-0.0006865601503759</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-30.9667839029103</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1845196</v>
@@ -974,16 +977,16 @@
         <v>5525095</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W6" t="s">
         <v>59</v>
@@ -1006,37 +1009,37 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.999996792093399</v>
+        <v>0.560050276703894</v>
       </c>
       <c r="G7">
-        <v>0.0416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1875</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0045</v>
+        <v>0.637</v>
       </c>
       <c r="K7">
-        <v>-0.0009221564289432</v>
+        <v>-0.004773455188028</v>
       </c>
       <c r="L7">
-        <v>-0.0012252342713039</v>
+        <v>-0.038300640243742</v>
       </c>
       <c r="M7">
-        <v>-0.0006363240418118</v>
+        <v>0.0249042815864739</v>
       </c>
       <c r="N7">
-        <v>-20.492365087628</v>
+        <v>-0.749365021668455</v>
       </c>
       <c r="O7" t="s">
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1845196</v>
@@ -1045,16 +1048,16 @@
         <v>5525095</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W7" t="s">
         <v>59</v>
@@ -1077,37 +1080,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.143074675100918</v>
+        <v>0.024184795614113</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.979166666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.631</v>
+        <v>7.98</v>
       </c>
       <c r="K8">
-        <v>0.02435</v>
+        <v>-0.0699059065934068</v>
       </c>
       <c r="L8">
-        <v>-0.0191760819886591</v>
+        <v>-0.122248010407605</v>
       </c>
       <c r="M8">
-        <v>0.0561892874243412</v>
+        <v>-0.0105025231880245</v>
       </c>
       <c r="N8">
-        <v>3.85895404120444</v>
+        <v>-0.876013867085299</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1845196</v>
@@ -1116,19 +1119,16 @@
         <v>5525095</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
-      </c>
-      <c r="W8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,37 +1148,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.049345077881456</v>
+        <v>0.625509047039745</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.8297872340425529</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.07</v>
+        <v>0.6475</v>
       </c>
       <c r="K9">
-        <v>-0.0565791738382099</v>
+        <v>-0.0052224584278155</v>
       </c>
       <c r="L9">
-        <v>-0.11400531801377</v>
+        <v>-0.0390446211017988</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0253276058264355</v>
       </c>
       <c r="N9">
-        <v>-0.701105004190953</v>
+        <v>-0.806557286149124</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1845196</v>
@@ -1187,16 +1187,19 @@
         <v>5525095</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="W9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,37 +1219,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.164105656945935</v>
+        <v>0.829412913269975</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.979166666666667</v>
+        <v>0.645833333333333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.647</v>
+        <v>0.8</v>
       </c>
       <c r="K10">
-        <v>0.0243651789723073</v>
+        <v>-0.0188885573885574</v>
       </c>
       <c r="L10">
-        <v>-0.0201370695082495</v>
+        <v>-0.0479231624706751</v>
       </c>
       <c r="M10">
-        <v>0.05705309955189</v>
+        <v>0.0107902873696278</v>
       </c>
       <c r="N10">
-        <v>3.76587001117578</v>
+        <v>-2.36106967356967</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1845196</v>
@@ -1255,16 +1258,16 @@
         <v>5525095</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W10" t="s">
         <v>58</v>
@@ -1287,31 +1290,31 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.367705366050189</v>
+        <v>0.976929458182349</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.770833333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8</v>
+        <v>0.0195</v>
       </c>
       <c r="K11">
-        <v>0.009080713853337899</v>
+        <v>-0.0016836177093788</v>
       </c>
       <c r="L11">
-        <v>-0.0321903461122343</v>
+        <v>-0.0037754464391452</v>
       </c>
       <c r="M11">
-        <v>0.0487973844492751</v>
+        <v>-0.0003312643704465</v>
       </c>
       <c r="N11">
-        <v>1.13508923166724</v>
+        <v>-8.63393697117351</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
@@ -1326,16 +1329,16 @@
         <v>5525095</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W11" t="s">
         <v>58</v>
@@ -1358,37 +1361,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.72471266978495</v>
+        <v>0.910217255736718</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.583333333333333</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.021</v>
+        <v>1.975</v>
       </c>
       <c r="K12">
-        <v>-0.0005006549536519</v>
+        <v>-0.279253565583353</v>
       </c>
       <c r="L12">
-        <v>-0.0025912275998017</v>
+        <v>-0.921675894053372</v>
       </c>
       <c r="M12">
-        <v>0.0009761207165859</v>
+        <v>0.0353756513797112</v>
       </c>
       <c r="N12">
-        <v>-2.38407120786649</v>
+        <v>-14.1394210421951</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q12">
         <v>1845196</v>
@@ -1397,19 +1400,19 @@
         <v>5525095</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1429,37 +1432,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.941133111119049</v>
+        <v>1.61029972830518E-05</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="H13">
-        <v>0.979166666666667</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>2.245</v>
+        <v>0.91</v>
       </c>
       <c r="K13">
-        <v>-0.309285322720736</v>
+        <v>-0.191321428571429</v>
       </c>
       <c r="L13">
-        <v>-0.909171063966783</v>
+        <v>-0.270579025465403</v>
       </c>
       <c r="M13">
-        <v>0.0237769653030699</v>
+        <v>-0.120155561916853</v>
       </c>
       <c r="N13">
-        <v>-13.7766290744203</v>
+        <v>-21.0243328100471</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1845196</v>
@@ -1468,19 +1471,19 @@
         <v>5525095</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1494,43 +1497,43 @@
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.010618377183117</v>
+        <v>0.619208241242216</v>
       </c>
       <c r="G14">
-        <v>0.028169014084507</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.816901408450704</v>
+        <v>0.858490566037736</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9</v>
+        <v>10.71</v>
       </c>
       <c r="K14">
-        <v>-0.100371279761905</v>
+        <v>0.0116613527719968</v>
       </c>
       <c r="L14">
-        <v>-0.178694570320577</v>
+        <v>-0.0475697876787437</v>
       </c>
       <c r="M14">
-        <v>-0.0268298765481437</v>
+        <v>0.055721899216082</v>
       </c>
       <c r="N14">
-        <v>-11.1523644179894</v>
+        <v>0.108882845676908</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1845196</v>
@@ -1539,19 +1542,19 @@
         <v>5525095</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1565,43 +1568,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>0.917545689615907</v>
+      </c>
+      <c r="G15">
+        <v>0.235849056603774</v>
+      </c>
+      <c r="H15">
+        <v>0.150943396226415</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
-        <v>0.776519453733732</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0.8301886792452829</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
-        <v>10.72</v>
+        <v>0.0075</v>
       </c>
       <c r="K15">
-        <v>0.0198775510204086</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.0375994753898634</v>
+        <v>-0.0004000482720011</v>
       </c>
       <c r="M15">
-        <v>0.07190731091034309</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.185424916235155</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1845196</v>
@@ -1610,19 +1613,19 @@
         <v>5525095</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1639,40 +1642,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>0.878094644072962</v>
+        <v>0.860547548025614</v>
       </c>
       <c r="G16">
-        <v>0.242990654205607</v>
+        <v>0.0095238095238095</v>
       </c>
       <c r="H16">
-        <v>0.149532710280374</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.008</v>
+        <v>147.6</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-4.5725471728818</v>
       </c>
       <c r="L16">
-        <v>-0.0003783827779132</v>
+        <v>-11.7237093779875</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.51443221889291</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-3.09793168894431</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1845196</v>
@@ -1681,19 +1684,19 @@
         <v>5525095</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,40 +1713,40 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>0.923972740061657</v>
+        <v>0.151086509820943</v>
       </c>
       <c r="G17">
-        <v>0.0093457943925233</v>
+        <v>0.7623762376237621</v>
       </c>
       <c r="H17">
-        <v>0.747663551401869</v>
+        <v>0.376237623762376</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J17">
-        <v>160</v>
+        <v>0.005</v>
       </c>
       <c r="K17">
-        <v>-6.90598739495798</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-14.7962802636473</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.00332593730069</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-4.31624212184874</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q17">
         <v>1845196</v>
@@ -1752,19 +1755,19 @@
         <v>5525095</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1781,40 +1784,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>0.0669648863040605</v>
+        <v>0.999999954437949</v>
       </c>
       <c r="G18">
-        <v>0.7623762376237621</v>
+        <v>0.0471698113207547</v>
       </c>
       <c r="H18">
-        <v>0.376237623762376</v>
+        <v>0.150943396226415</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-0.0004434439498178</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0006138655462184001</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-0.0003069327731092</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>-11.0860987454472</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q18">
         <v>1845196</v>
@@ -1823,16 +1826,16 @@
         <v>5525095</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W18" t="s">
         <v>59</v>
@@ -1849,43 +1852,43 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.999723028200602</v>
+        <v>0.728257066856685</v>
       </c>
       <c r="G19">
-        <v>0.0186915887850467</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.149532710280374</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.005</v>
+        <v>0.653</v>
       </c>
       <c r="K19">
-        <v>-0.0002595948827292</v>
+        <v>-0.0034902563460332</v>
       </c>
       <c r="L19">
-        <v>-0.0004141156462585</v>
+        <v>-0.020999326788095</v>
       </c>
       <c r="M19">
-        <v>-0.0001119792742978</v>
+        <v>0.0039844073082425</v>
       </c>
       <c r="N19">
-        <v>-5.19189765458422</v>
+        <v>-0.534495611949955</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>1845196</v>
@@ -1894,16 +1897,16 @@
         <v>5525095</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W19" t="s">
         <v>59</v>
@@ -1920,43 +1923,43 @@
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.8517831450386339</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.97196261682243</v>
+        <v>0.647619047619048</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.66</v>
+        <v>7.96</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.0151803136502862</v>
       </c>
       <c r="L20">
-        <v>-0.0157264999912368</v>
+        <v>-0.0073046766120706</v>
       </c>
       <c r="M20">
-        <v>0.0073672729693228</v>
+        <v>0.0342922154641818</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.190707457918168</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>1845196</v>
@@ -1965,19 +1968,16 @@
         <v>5525095</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1991,43 +1991,43 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.907673882045815</v>
+        <v>0.642101762953478</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.6857142857142861</v>
+        <v>0.877358490566038</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.92</v>
+        <v>0.6655</v>
       </c>
       <c r="K21">
-        <v>0.0191355681280149</v>
+        <v>-0.0042610751186266</v>
       </c>
       <c r="L21">
-        <v>-0.0036235119047618</v>
+        <v>-0.019464325589272</v>
       </c>
       <c r="M21">
-        <v>0.0391566852992791</v>
+        <v>0.0050028535233444</v>
       </c>
       <c r="N21">
-        <v>0.241610708687057</v>
+        <v>-0.640281760875524</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q21">
         <v>1845196</v>
@@ -2036,16 +2036,19 @@
         <v>5525095</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="W21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2065,31 +2068,31 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.440281460095996</v>
+        <v>0.975960371045942</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.878504672897196</v>
+        <v>0.584905660377358</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.676</v>
+        <v>0.85</v>
       </c>
       <c r="K22">
-        <v>0.0005702576112412</v>
+        <v>-0.0101975787370524</v>
       </c>
       <c r="L22">
-        <v>-0.0151839697940833</v>
+        <v>-0.0227334144387779</v>
       </c>
       <c r="M22">
-        <v>0.007995234857124099</v>
+        <v>-0.0024960547339641</v>
       </c>
       <c r="N22">
-        <v>0.08435763479899561</v>
+        <v>-1.19971514553558</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
@@ -2104,16 +2107,16 @@
         <v>5525095</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W22" t="s">
         <v>58</v>
@@ -2136,31 +2139,31 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.873798018537367</v>
+        <v>0.997090689622658</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.663551401869159</v>
+        <v>0.424528301886792</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.86</v>
+        <v>0.023</v>
       </c>
       <c r="K23">
-        <v>-0.0061680739388407</v>
+        <v>-0.0009807507244496</v>
       </c>
       <c r="L23">
-        <v>-0.0165097687234024</v>
+        <v>-0.0013674642563042</v>
       </c>
       <c r="M23">
-        <v>0.0018885149786085</v>
+        <v>-0.0003409053452139</v>
       </c>
       <c r="N23">
-        <v>-0.7172178998652</v>
+        <v>-4.26413358456363</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
@@ -2175,16 +2178,16 @@
         <v>5525095</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W23" t="s">
         <v>58</v>
@@ -2207,37 +2210,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.926979124249585</v>
+        <v>0.6644952035945459</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.429906542056075</v>
+        <v>0.924528301886792</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.024</v>
+        <v>3.49</v>
       </c>
       <c r="K24">
-        <v>-0.0005017170329669999</v>
+        <v>-0.0188898415809244</v>
       </c>
       <c r="L24">
-        <v>-0.001003434065934</v>
+        <v>-0.197168242308351</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0519973396177101</v>
       </c>
       <c r="N24">
-        <v>-2.09048763736263</v>
+        <v>-0.5412562057571449</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q24">
         <v>1845196</v>
@@ -2246,19 +2249,19 @@
         <v>5525095</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,7 +2272,7 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2278,37 +2281,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.808254698496209</v>
+        <v>0.06830843185274101</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="H25">
-        <v>0.934579439252336</v>
+        <v>0.654205607476635</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>3.97</v>
+        <v>0.9</v>
       </c>
       <c r="K25">
-        <v>-0.0643297455968689</v>
+        <v>-0.0287424334140436</v>
       </c>
       <c r="L25">
-        <v>-0.222772362141085</v>
+        <v>-0.0713898933538847</v>
       </c>
       <c r="M25">
-        <v>0.0542680267301122</v>
+        <v>0.0002755778685154</v>
       </c>
       <c r="N25">
-        <v>-1.6203966145307</v>
+        <v>-3.19360371267151</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q25">
         <v>1845196</v>
@@ -2317,19 +2320,19 @@
         <v>5525095</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,40 +2349,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>0.151761419627249</v>
+        <v>0.5</v>
       </c>
       <c r="G26">
-        <v>0.0192307692307692</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.663461538461538</v>
+        <v>0.813664596273292</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.91</v>
+        <v>10.72</v>
       </c>
       <c r="K26">
-        <v>-0.0260892857142857</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>-0.07332893826246881</v>
+        <v>-0.0339737092372073</v>
       </c>
       <c r="M26">
-        <v>0.0099760819089</v>
+        <v>0.0256904280411955</v>
       </c>
       <c r="N26">
-        <v>-2.86695447409733</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>1845196</v>
@@ -2388,19 +2391,19 @@
         <v>5525095</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2414,43 +2417,43 @@
         <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.715590382395065</v>
+        <v>0.985865883568863</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H27">
-        <v>0.806666666666667</v>
+        <v>0.123456790123457</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>10.72</v>
+        <v>0.008</v>
       </c>
       <c r="K27">
-        <v>0.0099795081967213</v>
+        <v>-0.0001175193050193</v>
       </c>
       <c r="L27">
-        <v>-0.0284748302125065</v>
+        <v>-0.0003065982949181</v>
       </c>
       <c r="M27">
-        <v>0.0401373626373625</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>0.09309242720822131</v>
+        <v>-1.46899131274131</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q27">
         <v>1845196</v>
@@ -2459,19 +2462,19 @@
         <v>5525095</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2488,40 +2491,40 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>0.944754591566321</v>
+        <v>0.9796539941431111</v>
       </c>
       <c r="G28">
-        <v>0.225165562913907</v>
+        <v>0.0062111801242236</v>
       </c>
       <c r="H28">
-        <v>0.132450331125828</v>
+        <v>0.763975155279503</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.008</v>
+        <v>170</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>-5.98402847211504</v>
       </c>
       <c r="L28">
-        <v>-0.0002933266044311</v>
+        <v>-10.6062935861773</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-1.11118877336999</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>-3.52001674830297</v>
       </c>
       <c r="O28" t="s">
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q28">
         <v>1845196</v>
@@ -2530,19 +2533,19 @@
         <v>5525095</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,40 +2562,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>0.969681970328645</v>
+        <v>0.925629530069391</v>
       </c>
       <c r="G29">
-        <v>0.0066225165562913</v>
+        <v>0.711538461538462</v>
       </c>
       <c r="H29">
-        <v>0.748344370860927</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J29">
-        <v>170</v>
+        <v>0.005</v>
       </c>
       <c r="K29">
-        <v>-6.07027934936351</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-11.4100224586356</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>-0.706917139684145</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-3.57075255844912</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1845196</v>
@@ -2601,19 +2604,19 @@
         <v>5525095</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2630,28 +2633,28 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>0.863711141749014</v>
+        <v>0.896423388740478</v>
       </c>
       <c r="G30">
-        <v>0.703448275862069</v>
+        <v>0.160493827160494</v>
       </c>
       <c r="H30">
-        <v>0.4</v>
+        <v>0.0987654320987654</v>
       </c>
       <c r="I30">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-0.0001166556525787</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2663,7 +2666,7 @@
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <v>1845196</v>
@@ -2672,16 +2675,16 @@
         <v>5525095</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W30" t="s">
         <v>59</v>
@@ -2698,43 +2701,43 @@
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>0.377289937424923</v>
+        <v>0.603607335217313</v>
       </c>
       <c r="G31">
-        <v>0.152317880794702</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.105960264900662</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.004</v>
+        <v>0.64385</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-0.0011795155993431</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-0.0075536844462802</v>
       </c>
       <c r="M31">
-        <v>9.21561175295943E-05</v>
+        <v>0.0042877947764253</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-0.183197266342033</v>
       </c>
       <c r="O31" t="s">
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1845196</v>
@@ -2743,16 +2746,16 @@
         <v>5525095</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W31" t="s">
         <v>59</v>
@@ -2769,43 +2772,43 @@
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.5290299693302291</v>
+        <v>0.978698676403742</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.927152317880795</v>
+        <v>0.61875</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.6524</v>
+        <v>7.92</v>
       </c>
       <c r="K32">
-        <v>-0.0002496582365003</v>
+        <v>0.0164219384867292</v>
       </c>
       <c r="L32">
-        <v>-0.0079510341495895</v>
+        <v>0.0031562330272854</v>
       </c>
       <c r="M32">
-        <v>0.0052451162226004</v>
+        <v>0.0288942011284551</v>
       </c>
       <c r="N32">
-        <v>-0.0382676634733817</v>
+        <v>0.207347708165772</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q32">
         <v>1845196</v>
@@ -2814,19 +2817,16 @@
         <v>5525095</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V32" t="s">
-        <v>56</v>
-      </c>
-      <c r="W32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2840,43 +2840,43 @@
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.98317054260063</v>
+        <v>0.7171387378233089</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.651006711409396</v>
+        <v>0.876543209876543</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.89</v>
+        <v>0.6648500000000001</v>
       </c>
       <c r="K33">
-        <v>0.0196900269541779</v>
+        <v>-0.0021990968801313</v>
       </c>
       <c r="L33">
-        <v>0.0045754648011602</v>
+        <v>-0.0082293419130051</v>
       </c>
       <c r="M33">
-        <v>0.0353192169859886</v>
+        <v>0.0032636433649564</v>
       </c>
       <c r="N33">
-        <v>0.249556742131532</v>
+        <v>-0.330765869012765</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q33">
         <v>1845196</v>
@@ -2885,16 +2885,19 @@
         <v>5525095</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V33" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="W33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2914,37 +2917,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.648819059783577</v>
+        <v>0.999398307664689</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.867549668874172</v>
+        <v>0.580246913580247</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.676</v>
+        <v>0.859</v>
       </c>
       <c r="K34">
-        <v>-0.0015051510989011</v>
+        <v>-0.0099577426390403</v>
       </c>
       <c r="L34">
-        <v>-0.0095371119579189</v>
+        <v>-0.0156456298018847</v>
       </c>
       <c r="M34">
-        <v>0.0043978321327234</v>
+        <v>-0.0050029988375343</v>
       </c>
       <c r="N34">
-        <v>-0.22265548800313</v>
+        <v>-1.1592249870827</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1845196</v>
@@ -2953,16 +2956,16 @@
         <v>5525095</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W34" t="s">
         <v>58</v>
@@ -2985,37 +2988,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.9978990998113419</v>
+        <v>0.999870579517926</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.622516556291391</v>
+        <v>0.364197530864198</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.86</v>
+        <v>0.0235</v>
       </c>
       <c r="K35">
-        <v>-0.0100343406593407</v>
+        <v>-0.0007128220140515</v>
       </c>
       <c r="L35">
-        <v>-0.0166173794358508</v>
+        <v>-0.0010849246140267</v>
       </c>
       <c r="M35">
-        <v>-0.0049818924068727</v>
+        <v>-0.0003822140352699</v>
       </c>
       <c r="N35">
-        <v>-1.16678379759775</v>
+        <v>-3.03328516617669</v>
       </c>
       <c r="O35" t="s">
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q35">
         <v>1845196</v>
@@ -3024,16 +3027,16 @@
         <v>5525095</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W35" t="s">
         <v>58</v>
@@ -3056,37 +3059,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.989436092323271</v>
+        <v>0.999679698510316</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.384105960264901</v>
+        <v>0.932098765432099</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.024</v>
+        <v>4.33</v>
       </c>
       <c r="K36">
-        <v>-0.0005001141031492</v>
+        <v>-0.158532980177717</v>
       </c>
       <c r="L36">
-        <v>-0.001003434065934</v>
+        <v>-0.272842148309706</v>
       </c>
       <c r="M36">
-        <v>-0.0001427817844367</v>
+        <v>-0.07144406184223411</v>
       </c>
       <c r="N36">
-        <v>-2.08380876312186</v>
+        <v>-3.66126975006275</v>
       </c>
       <c r="O36" t="s">
         <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q36">
         <v>1845196</v>
@@ -3095,89 +3098,18 @@
         <v>5525095</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37">
-        <v>0.9988843369177129</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0.940397350993378</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>4.37</v>
-      </c>
-      <c r="K37">
-        <v>-0.169357178279197</v>
-      </c>
-      <c r="L37">
-        <v>-0.288566836742088</v>
-      </c>
-      <c r="M37">
-        <v>-0.07143972813707949</v>
-      </c>
-      <c r="N37">
-        <v>-3.87545030387178</v>
-      </c>
-      <c r="O37" t="s">
-        <v>40</v>
-      </c>
-      <c r="P37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q37">
-        <v>1845196</v>
-      </c>
-      <c r="R37">
-        <v>5525095</v>
-      </c>
-      <c r="S37" t="s">
-        <v>53</v>
-      </c>
-      <c r="T37" t="s">
-        <v>54</v>
-      </c>
-      <c r="U37" t="s">
-        <v>55</v>
-      </c>
-      <c r="V37" t="s">
-        <v>56</v>
-      </c>
-      <c r="W37" t="s">
         <v>61</v>
       </c>
     </row>
